--- a/Document/설치 현황.xlsx
+++ b/Document/설치 현황.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,246 @@
   </si>
   <si>
     <t>2017-1101025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.67.165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-1100586</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013-1100043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E14, F14 사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1100277</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1100209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.141.144.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1100513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.66.162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-1100476</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-1100388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E16, F16 사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-1100389</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E16, F16 사이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1100314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1100341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1100487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-1100313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-1100887</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.164</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-1100648</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCBGA, M2F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BA-RF-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-1101334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-1100013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-1101288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-1100010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.142.76.168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E19, F19 사이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,18 +1284,36 @@
       <c r="A10" s="18">
         <v>5</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15">
+        <v>15865</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="14">
+        <v>43048</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="27"/>
       <c r="G11" s="21"/>
@@ -1064,18 +1322,36 @@
       <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20"/>
+      <c r="B12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15">
+        <v>37454</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="B13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="14">
+        <v>37601</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="27"/>
       <c r="G13" s="21"/>
@@ -1084,18 +1360,36 @@
       <c r="A14" s="18">
         <v>7</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="20"/>
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="15">
+        <v>37903</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="14">
+        <v>37885</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="27"/>
       <c r="G15" s="21"/>
@@ -1104,18 +1398,36 @@
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="20"/>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15">
+        <v>42782</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="B17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="14">
+        <v>42775</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="27"/>
       <c r="G17" s="21"/>
@@ -1124,18 +1436,36 @@
       <c r="A18" s="18">
         <v>9</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="20"/>
+      <c r="B18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="15">
+        <v>32289</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="14">
+        <v>32272</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="27"/>
       <c r="G19" s="21"/>
@@ -1144,18 +1474,36 @@
       <c r="A20" s="18">
         <v>10</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="20"/>
+      <c r="B20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15">
+        <v>32440</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="B21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="14">
+        <v>32271</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="27"/>
       <c r="G21" s="21"/>
@@ -1164,18 +1512,36 @@
       <c r="A22" s="18">
         <v>11</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="20"/>
+      <c r="B22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="15">
+        <v>43134</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="B23" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="14">
+        <v>36011</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="27"/>
       <c r="G23" s="21"/>
@@ -1184,18 +1550,36 @@
       <c r="A24" s="18">
         <v>12</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="20"/>
+      <c r="B24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="15">
+        <v>36798</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="B25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="14">
+        <v>36788</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="27"/>
       <c r="G25" s="21"/>
@@ -1204,18 +1588,36 @@
       <c r="A26" s="18">
         <v>13</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="20"/>
+      <c r="B26" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="15">
+        <v>43316</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="14">
+        <v>43344</v>
+      </c>
       <c r="E27" s="19"/>
       <c r="F27" s="27"/>
       <c r="G27" s="21"/>
